--- a/Project/Arena of Valor/Dataset_ArenaofValor.xlsx
+++ b/Project/Arena of Valor/Dataset_ArenaofValor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaotingzhou/Documents/Lectures/SQL/Project/Arena of Valor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6BD67D-93D9-184E-AF00-28CD8B5ADCBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26668BC7-6580-9349-9EE6-7FAFEA4ACE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" activeTab="1" xr2:uid="{4F4E6C32-125B-FC44-9721-F24B365705FA}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="259">
   <si>
     <t>字段名</t>
   </si>
@@ -992,12 +992,33 @@
       <t>,</t>
     </r>
   </si>
+  <si>
+    <t>1 match</t>
+  </si>
+  <si>
+    <t>10 players</t>
+  </si>
+  <si>
+    <t>1 player</t>
+  </si>
+  <si>
+    <t>1 hero</t>
+  </si>
+  <si>
+    <t>6 items</t>
+  </si>
+  <si>
+    <t>2 master_skill</t>
+  </si>
+  <si>
+    <t>5 vs 5 (red vs blue)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1159,8 +1180,21 @@
       <color rgb="FFC00000"/>
       <name val="Aptos Narrow (Body)"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="4"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1176,6 +1210,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1207,7 +1247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1241,6 +1281,15 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2277,22 +2326,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5690EB-2240-5344-BE84-8D3D170BFF8E}">
   <dimension ref="A1:Z133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="56" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="34"/>
   <cols>
     <col min="1" max="12" width="10.83203125" style="3"/>
     <col min="13" max="13" width="19" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="34.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.1640625" style="3" customWidth="1"/>
     <col min="16" max="16" width="19" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.1640625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="42.33203125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="31" style="3" customWidth="1"/>
+    <col min="20" max="20" width="29.83203125" style="3" customWidth="1"/>
+    <col min="21" max="21" width="25.5" style="3" customWidth="1"/>
+    <col min="22" max="22" width="38" style="3" customWidth="1"/>
+    <col min="23" max="23" width="35.6640625" style="3" customWidth="1"/>
     <col min="24" max="24" width="30.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="27.5" style="3" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="33.6640625" style="3" bestFit="1" customWidth="1"/>
@@ -2539,7 +2590,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:22">
       <c r="B17" s="3" t="s">
         <v>44</v>
       </c>
@@ -2550,7 +2601,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:22">
       <c r="B18" s="3" t="s">
         <v>45</v>
       </c>
@@ -2561,7 +2612,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:22">
       <c r="B19" s="3" t="s">
         <v>46</v>
       </c>
@@ -2572,7 +2623,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:22">
       <c r="B20" s="3" t="s">
         <v>18</v>
       </c>
@@ -2583,7 +2634,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:22">
       <c r="A21" s="11"/>
       <c r="B21" s="3" t="s">
         <v>47</v>
@@ -2595,7 +2646,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:22">
       <c r="B22" s="3" t="s">
         <v>48</v>
       </c>
@@ -2606,7 +2657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:22">
       <c r="B23" s="3" t="s">
         <v>2</v>
       </c>
@@ -2617,7 +2668,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:22">
       <c r="B24" s="3" t="s">
         <v>49</v>
       </c>
@@ -2628,37 +2679,65 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:22">
       <c r="B25" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:22">
       <c r="B26" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:22">
       <c r="B27" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:22">
       <c r="B28" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="R28" s="32"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="32"/>
+    </row>
+    <row r="29" spans="1:22">
       <c r="B29" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="R29" s="32"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="32"/>
+    </row>
+    <row r="30" spans="1:22">
       <c r="B30" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="33" spans="1:15">
+      <c r="Q30" s="32"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="32"/>
+      <c r="U30" s="32"/>
+      <c r="V30" s="32"/>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="Q31" s="33"/>
+      <c r="R31" s="32"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="32"/>
+      <c r="U31" s="32"/>
+      <c r="V31" s="32"/>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="Q32" s="32"/>
+      <c r="R32" s="32"/>
+      <c r="S32" s="32"/>
+      <c r="T32" s="32"/>
+      <c r="U32" s="32"/>
+      <c r="V32" s="32"/>
+    </row>
+    <row r="33" spans="1:22">
       <c r="M33" s="14" t="s">
         <v>6</v>
       </c>
@@ -2668,8 +2747,14 @@
       <c r="O33" s="14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:15">
+      <c r="Q33" s="32"/>
+      <c r="R33" s="32"/>
+      <c r="S33" s="32"/>
+      <c r="T33" s="32"/>
+      <c r="U33" s="32"/>
+      <c r="V33" s="32"/>
+    </row>
+    <row r="34" spans="1:22">
       <c r="B34" s="3" t="s">
         <v>22</v>
       </c>
@@ -2682,8 +2767,14 @@
       <c r="O34" s="12" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="35" spans="1:15">
+      <c r="Q34" s="32"/>
+      <c r="R34" s="32"/>
+      <c r="S34" s="32"/>
+      <c r="T34" s="32"/>
+      <c r="U34" s="32"/>
+      <c r="V34" s="32"/>
+    </row>
+    <row r="35" spans="1:22">
       <c r="A35" s="10"/>
       <c r="B35" s="3" t="s">
         <v>52</v>
@@ -2697,8 +2788,14 @@
       <c r="O35" s="12" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="36" spans="1:15">
+      <c r="Q35" s="32"/>
+      <c r="R35" s="32"/>
+      <c r="S35" s="32"/>
+      <c r="T35" s="32"/>
+      <c r="U35" s="32"/>
+      <c r="V35" s="32"/>
+    </row>
+    <row r="36" spans="1:22">
       <c r="A36" s="10"/>
       <c r="B36" s="3" t="s">
         <v>53</v>
@@ -2712,8 +2809,14 @@
       <c r="O36" s="12" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="37" spans="1:15">
+      <c r="Q36" s="32"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="32"/>
+      <c r="U36" s="32"/>
+      <c r="V36" s="32"/>
+    </row>
+    <row r="37" spans="1:22">
       <c r="A37" s="10"/>
       <c r="B37" s="3" t="s">
         <v>54</v>
@@ -2727,8 +2830,14 @@
       <c r="O37" s="12" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="38" spans="1:15">
+      <c r="Q37" s="32"/>
+      <c r="R37" s="32"/>
+      <c r="S37" s="32"/>
+      <c r="T37" s="32"/>
+      <c r="U37" s="32"/>
+      <c r="V37" s="32"/>
+    </row>
+    <row r="38" spans="1:22">
       <c r="B38" s="3" t="s">
         <v>21</v>
       </c>
@@ -2741,8 +2850,14 @@
       <c r="O38" s="12" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="39" spans="1:15">
+      <c r="Q38" s="32"/>
+      <c r="R38" s="32"/>
+      <c r="S38" s="32"/>
+      <c r="T38" s="32"/>
+      <c r="U38" s="32"/>
+      <c r="V38" s="32"/>
+    </row>
+    <row r="39" spans="1:22">
       <c r="M39" s="12">
         <v>6</v>
       </c>
@@ -2752,8 +2867,14 @@
       <c r="O39" s="12" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="40" spans="1:15">
+      <c r="Q39" s="32"/>
+      <c r="R39" s="32"/>
+      <c r="S39" s="32"/>
+      <c r="T39" s="32"/>
+      <c r="U39" s="32"/>
+      <c r="V39" s="32"/>
+    </row>
+    <row r="40" spans="1:22">
       <c r="M40" s="12">
         <v>7</v>
       </c>
@@ -2763,8 +2884,14 @@
       <c r="O40" s="12" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="41" spans="1:15">
+      <c r="Q40" s="32"/>
+      <c r="R40" s="32"/>
+      <c r="S40" s="32"/>
+      <c r="T40" s="32"/>
+      <c r="U40" s="32"/>
+      <c r="V40" s="32"/>
+    </row>
+    <row r="41" spans="1:22">
       <c r="M41" s="12">
         <v>8</v>
       </c>
@@ -2774,8 +2901,14 @@
       <c r="O41" s="12" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="42" spans="1:15">
+      <c r="Q41" s="32"/>
+      <c r="R41" s="32"/>
+      <c r="S41" s="32"/>
+      <c r="T41" s="32"/>
+      <c r="U41" s="32"/>
+      <c r="V41" s="32"/>
+    </row>
+    <row r="42" spans="1:22">
       <c r="M42" s="12">
         <v>9</v>
       </c>
@@ -2785,19 +2918,47 @@
       <c r="O42" s="12" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="45" spans="1:15">
+      <c r="Q42" s="32"/>
+      <c r="R42" s="32"/>
+      <c r="S42" s="32"/>
+      <c r="T42" s="32"/>
+      <c r="U42" s="32"/>
+      <c r="V42" s="32"/>
+    </row>
+    <row r="43" spans="1:22">
+      <c r="Q43" s="32"/>
+      <c r="R43" s="32"/>
+      <c r="S43" s="32"/>
+      <c r="T43" s="32"/>
+      <c r="U43" s="32"/>
+      <c r="V43" s="32"/>
+    </row>
+    <row r="44" spans="1:22">
+      <c r="Q44" s="32"/>
+      <c r="R44" s="32"/>
+      <c r="S44" s="32"/>
+      <c r="T44" s="32"/>
+      <c r="U44" s="32"/>
+      <c r="V44" s="32"/>
+    </row>
+    <row r="45" spans="1:22">
       <c r="M45" s="14" t="s">
         <v>15</v>
       </c>
       <c r="N45" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="O45" s="14" t="s">
+      <c r="O45" s="31" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="46" spans="1:15">
+      <c r="Q45" s="33"/>
+      <c r="R45" s="33"/>
+      <c r="S45" s="32"/>
+      <c r="T45" s="32"/>
+      <c r="U45" s="32"/>
+      <c r="V45" s="32"/>
+    </row>
+    <row r="46" spans="1:22">
       <c r="B46" s="3" t="s">
         <v>70</v>
       </c>
@@ -2810,8 +2971,14 @@
       <c r="O46" s="12" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="47" spans="1:15">
+      <c r="Q46" s="32"/>
+      <c r="R46" s="32"/>
+      <c r="S46" s="32"/>
+      <c r="T46" s="32"/>
+      <c r="U46" s="32"/>
+      <c r="V46" s="32"/>
+    </row>
+    <row r="47" spans="1:22">
       <c r="B47" s="3" t="s">
         <v>71</v>
       </c>
@@ -2824,8 +2991,14 @@
       <c r="O47" s="12" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="48" spans="1:15">
+      <c r="Q47" s="32"/>
+      <c r="R47" s="32"/>
+      <c r="S47" s="32"/>
+      <c r="T47" s="32"/>
+      <c r="U47" s="32"/>
+      <c r="V47" s="32"/>
+    </row>
+    <row r="48" spans="1:22">
       <c r="B48" s="3" t="s">
         <v>72</v>
       </c>
@@ -2838,8 +3011,14 @@
       <c r="O48" s="12" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="49" spans="1:15">
+      <c r="Q48" s="32"/>
+      <c r="R48" s="32"/>
+      <c r="S48" s="32"/>
+      <c r="T48" s="32"/>
+      <c r="U48" s="32"/>
+      <c r="V48" s="32"/>
+    </row>
+    <row r="49" spans="1:22">
       <c r="B49" s="3" t="s">
         <v>73</v>
       </c>
@@ -2852,8 +3031,14 @@
       <c r="O49" s="12" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="50" spans="1:15">
+      <c r="Q49" s="32"/>
+      <c r="R49" s="32"/>
+      <c r="S49" s="32"/>
+      <c r="T49" s="32"/>
+      <c r="U49" s="32"/>
+      <c r="V49" s="32"/>
+    </row>
+    <row r="50" spans="1:22">
       <c r="B50" s="3" t="s">
         <v>21</v>
       </c>
@@ -2866,8 +3051,14 @@
       <c r="O50" s="12" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="51" spans="1:15">
+      <c r="Q50" s="32"/>
+      <c r="R50" s="32"/>
+      <c r="S50" s="32"/>
+      <c r="T50" s="32"/>
+      <c r="U50" s="32"/>
+      <c r="V50" s="32"/>
+    </row>
+    <row r="51" spans="1:22">
       <c r="M51" s="12">
         <v>6</v>
       </c>
@@ -2877,8 +3068,14 @@
       <c r="O51" s="12" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="52" spans="1:15">
+      <c r="Q51" s="32"/>
+      <c r="R51" s="32"/>
+      <c r="S51" s="32"/>
+      <c r="T51" s="32"/>
+      <c r="U51" s="32"/>
+      <c r="V51" s="32"/>
+    </row>
+    <row r="52" spans="1:22">
       <c r="M52" s="12">
         <v>7</v>
       </c>
@@ -2888,8 +3085,14 @@
       <c r="O52" s="12" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="53" spans="1:15">
+      <c r="Q52" s="32"/>
+      <c r="R52" s="32"/>
+      <c r="S52" s="32"/>
+      <c r="T52" s="32"/>
+      <c r="U52" s="32"/>
+      <c r="V52" s="32"/>
+    </row>
+    <row r="53" spans="1:22">
       <c r="M53" s="12">
         <v>8</v>
       </c>
@@ -2899,8 +3102,14 @@
       <c r="O53" s="12" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="54" spans="1:15">
+      <c r="Q53" s="32"/>
+      <c r="R53" s="32"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="32"/>
+      <c r="U53" s="32"/>
+      <c r="V53" s="32"/>
+    </row>
+    <row r="54" spans="1:22">
       <c r="M54" s="12">
         <v>9</v>
       </c>
@@ -2910,8 +3119,14 @@
       <c r="O54" s="12" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="55" spans="1:15">
+      <c r="Q54" s="32"/>
+      <c r="R54" s="32"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="32"/>
+      <c r="U54" s="32"/>
+      <c r="V54" s="32"/>
+    </row>
+    <row r="55" spans="1:22">
       <c r="M55" s="12">
         <v>10</v>
       </c>
@@ -2921,11 +3136,31 @@
       <c r="O55" s="12" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="57" spans="1:15">
+      <c r="Q55" s="32"/>
+      <c r="R55" s="32"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="32"/>
+      <c r="U55" s="32"/>
+      <c r="V55" s="32"/>
+    </row>
+    <row r="56" spans="1:22">
+      <c r="Q56" s="32"/>
+      <c r="R56" s="32"/>
+      <c r="S56" s="32"/>
+      <c r="T56" s="32"/>
+      <c r="U56" s="32"/>
+      <c r="V56" s="32"/>
+    </row>
+    <row r="57" spans="1:22">
       <c r="A57" s="4"/>
-    </row>
-    <row r="58" spans="1:15">
+      <c r="Q57" s="32"/>
+      <c r="R57" s="32"/>
+      <c r="S57" s="32"/>
+      <c r="T57" s="32"/>
+      <c r="U57" s="32"/>
+      <c r="V57" s="32"/>
+    </row>
+    <row r="58" spans="1:22">
       <c r="A58" s="4"/>
       <c r="M58" s="14" t="s">
         <v>102</v>
@@ -2936,8 +3171,14 @@
       <c r="O58" s="14" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="59" spans="1:15">
+      <c r="Q58" s="32"/>
+      <c r="R58" s="32"/>
+      <c r="S58" s="32"/>
+      <c r="T58" s="32"/>
+      <c r="U58" s="32"/>
+      <c r="V58" s="32"/>
+    </row>
+    <row r="59" spans="1:22">
       <c r="A59" s="4"/>
       <c r="M59" s="12">
         <v>1</v>
@@ -2949,7 +3190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:22">
       <c r="A60" s="4"/>
       <c r="B60" s="3" t="s">
         <v>89</v>
@@ -2964,7 +3205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:22">
       <c r="A61" s="4"/>
       <c r="B61" s="3" t="s">
         <v>90</v>
@@ -2979,7 +3220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:22">
       <c r="A62" s="4"/>
       <c r="B62" s="3" t="s">
         <v>91</v>
@@ -2994,7 +3235,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:22">
       <c r="B63" s="3" t="s">
         <v>92</v>
       </c>
@@ -3008,7 +3249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:22">
       <c r="B64" s="3" t="s">
         <v>93</v>
       </c>
@@ -3578,90 +3819,200 @@
         <v>113</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:20">
       <c r="B81" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
+      <c r="M81" s="34"/>
+      <c r="N81" s="34"/>
+      <c r="O81" s="34"/>
+      <c r="P81" s="34"/>
+      <c r="Q81" s="34"/>
+      <c r="R81" s="34"/>
+      <c r="S81" s="34"/>
+      <c r="T81" s="34"/>
+    </row>
+    <row r="82" spans="1:20">
       <c r="A82" s="5"/>
       <c r="B82" s="3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
+      <c r="M82" s="34"/>
+      <c r="N82" s="34"/>
+      <c r="O82" s="34"/>
+      <c r="P82" s="34"/>
+      <c r="Q82" s="34"/>
+      <c r="R82" s="34"/>
+      <c r="S82" s="34"/>
+      <c r="T82" s="34"/>
+    </row>
+    <row r="83" spans="1:20">
       <c r="B83" s="3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
+      <c r="M83" s="34"/>
+      <c r="N83" s="34"/>
+      <c r="O83" s="34"/>
+      <c r="P83" s="34"/>
+      <c r="Q83" s="34"/>
+      <c r="R83" s="34"/>
+      <c r="S83" s="34"/>
+      <c r="T83" s="34"/>
+    </row>
+    <row r="84" spans="1:20">
       <c r="A84" s="5"/>
       <c r="B84" s="3" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
+      <c r="M84" s="34"/>
+      <c r="N84" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="O84" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="P84" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q84" s="35"/>
+      <c r="R84" s="35"/>
+      <c r="S84" s="34"/>
+      <c r="T84" s="34"/>
+    </row>
+    <row r="85" spans="1:20">
       <c r="B85" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
+      <c r="M85" s="34"/>
+      <c r="N85" s="35"/>
+      <c r="O85" s="35"/>
+      <c r="P85" s="35"/>
+      <c r="Q85" s="35"/>
+      <c r="R85" s="35"/>
+      <c r="S85" s="34"/>
+      <c r="T85" s="34"/>
+    </row>
+    <row r="86" spans="1:20">
       <c r="A86" s="5"/>
       <c r="B86" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="87" spans="1:2">
+      <c r="M86" s="34"/>
+      <c r="N86" s="35"/>
+      <c r="O86" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="P86" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q86" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="R86" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="S86" s="34"/>
+      <c r="T86" s="34"/>
+    </row>
+    <row r="87" spans="1:20">
       <c r="B87" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" ht="38">
+      <c r="M87" s="34"/>
+      <c r="N87" s="34"/>
+      <c r="O87" s="34"/>
+      <c r="P87" s="34"/>
+      <c r="Q87" s="34"/>
+      <c r="R87" s="34"/>
+      <c r="S87" s="34"/>
+      <c r="T87" s="34"/>
+    </row>
+    <row r="88" spans="1:20" ht="38">
       <c r="A88" s="6"/>
       <c r="B88" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" ht="38">
+      <c r="M88" s="34"/>
+      <c r="N88" s="34"/>
+      <c r="O88" s="34"/>
+      <c r="P88" s="34"/>
+      <c r="Q88" s="34"/>
+      <c r="R88" s="34"/>
+      <c r="S88" s="34"/>
+      <c r="T88" s="34"/>
+    </row>
+    <row r="89" spans="1:20" ht="38">
       <c r="A89" s="6"/>
       <c r="B89" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" ht="38">
+      <c r="M89" s="34"/>
+      <c r="N89" s="34"/>
+      <c r="O89" s="34"/>
+      <c r="P89" s="34"/>
+      <c r="Q89" s="34"/>
+      <c r="R89" s="34"/>
+      <c r="S89" s="34"/>
+      <c r="T89" s="34"/>
+    </row>
+    <row r="90" spans="1:20" ht="38">
       <c r="A90" s="6"/>
       <c r="B90" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" ht="38">
+      <c r="M90" s="34"/>
+      <c r="N90" s="34"/>
+      <c r="O90" s="34"/>
+      <c r="P90" s="34"/>
+      <c r="Q90" s="34"/>
+      <c r="R90" s="34"/>
+      <c r="S90" s="34"/>
+      <c r="T90" s="34"/>
+    </row>
+    <row r="91" spans="1:20" ht="38">
       <c r="A91" s="6"/>
       <c r="B91" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" ht="38">
+      <c r="M91" s="34"/>
+      <c r="N91" s="34"/>
+      <c r="O91" s="34"/>
+      <c r="P91" s="34"/>
+      <c r="Q91" s="34"/>
+      <c r="R91" s="34"/>
+      <c r="S91" s="34"/>
+      <c r="T91" s="34"/>
+    </row>
+    <row r="92" spans="1:20" ht="38">
       <c r="A92" s="6"/>
       <c r="B92" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="93" spans="1:2">
+      <c r="M92" s="34"/>
+      <c r="N92" s="34"/>
+      <c r="O92" s="34"/>
+      <c r="P92" s="34"/>
+      <c r="Q92" s="34"/>
+      <c r="R92" s="34"/>
+      <c r="S92" s="34"/>
+      <c r="T92" s="34"/>
+    </row>
+    <row r="93" spans="1:20">
       <c r="B93" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:20">
       <c r="B94" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:20">
       <c r="B95" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:20">
       <c r="A96" s="5"/>
       <c r="B96" s="3" t="s">
         <v>119</v>
@@ -3739,6 +4090,7 @@
       <c r="A133" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Project/Arena of Valor/Dataset_ArenaofValor.xlsx
+++ b/Project/Arena of Valor/Dataset_ArenaofValor.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaotingzhou/Documents/Lectures/SQL/Project/Arena of Valor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26668BC7-6580-9349-9EE6-7FAFEA4ACE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE5B644-249F-8C44-9D17-9CAD1BC0BB92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" activeTab="1" xr2:uid="{4F4E6C32-125B-FC44-9721-F24B365705FA}"/>
   </bookViews>
@@ -130,34 +130,6 @@
     <t>GROUP BY player_id</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="26"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>CREATE TABLE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="26"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> players</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="26"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-  </si>
-  <si>
     <t>panna</t>
   </si>
   <si>
@@ -866,133 +838,6 @@
     <t>DDL</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">username </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="26"/>
-        <color theme="6"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>TEXT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="26"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">rank_id </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="26"/>
-        <color theme="6"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>TEXT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="26"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> REFERENCES rank (rank_id),</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">join_date </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="26"/>
-        <color theme="6"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>TEXT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="26"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">winrate </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="26"/>
-        <color theme="6"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>REAL</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">player_id </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="26"/>
-        <color theme="6"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>INTEGER</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="26"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="26"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>PRIMARY KEY</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="26"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
     <t>1 match</t>
   </si>
   <si>
@@ -1012,13 +857,31 @@
   </si>
   <si>
     <t>5 vs 5 (red vs blue)</t>
+  </si>
+  <si>
+    <t>CREATE TABLE players (</t>
+  </si>
+  <si>
+    <t>player_id INTEGER PRIMARY KEY,</t>
+  </si>
+  <si>
+    <t>username TEXT,</t>
+  </si>
+  <si>
+    <t>rank_id TEXT REFERENCES rank (rank_id),</t>
+  </si>
+  <si>
+    <t>join_date TEXT,</t>
+  </si>
+  <si>
+    <t>winrate REAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1099,11 +962,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="26"/>
-      <color theme="6"/>
-      <name val="Aptos Narrow (Body)"/>
-    </font>
-    <font>
       <b/>
       <sz val="26"/>
       <color theme="1"/>
@@ -1169,18 +1027,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="26"/>
-      <color theme="6"/>
-      <name val="Aptos Narrow (Body)"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="26"/>
-      <color rgb="FFC00000"/>
-      <name val="Aptos Narrow (Body)"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -1192,6 +1038,12 @@
       <color theme="4"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1262,34 +1114,34 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1693,7 +1545,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -1702,7 +1554,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N3" s="17"/>
       <c r="O3" s="19"/>
@@ -1716,7 +1568,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N5" s="17"/>
       <c r="O5" s="17"/>
@@ -1732,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D7" s="24" t="s">
         <v>1</v>
@@ -1746,10 +1598,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="23" t="s">
         <v>131</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>132</v>
       </c>
       <c r="N8" s="17"/>
       <c r="O8" s="17"/>
@@ -1760,23 +1612,23 @@
         <v>3</v>
       </c>
       <c r="C9" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="23" t="s">
         <v>133</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>134</v>
       </c>
       <c r="N9" s="16"/>
       <c r="O9" s="17"/>
     </row>
     <row r="10" spans="1:16">
       <c r="B10" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N10" s="17"/>
       <c r="O10" s="17"/>
@@ -1787,10 +1639,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N11" s="17"/>
       <c r="O11" s="16"/>
@@ -1801,10 +1653,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="23" t="s">
         <v>137</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>138</v>
       </c>
       <c r="N12" s="17"/>
       <c r="O12" s="20"/>
@@ -1827,7 +1679,7 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N16" s="17"/>
       <c r="O16" s="20"/>
@@ -1841,7 +1693,7 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N18" s="17"/>
       <c r="O18" s="17"/>
@@ -1857,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D20" s="24" t="s">
         <v>1</v>
@@ -1871,10 +1723,10 @@
         <v>2</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N21" s="17"/>
       <c r="O21" s="17"/>
@@ -1885,10 +1737,10 @@
         <v>18</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N22" s="17"/>
       <c r="O22" s="20"/>
@@ -1911,7 +1763,7 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N26" s="17"/>
       <c r="O26" s="17"/>
@@ -1924,7 +1776,7 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N28" s="17"/>
       <c r="O28" s="17"/>
@@ -1940,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D30" s="24" t="s">
         <v>1</v>
@@ -1954,10 +1806,10 @@
         <v>6</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N31" s="17"/>
       <c r="O31" s="17"/>
@@ -1968,10 +1820,10 @@
         <v>7</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N32" s="17"/>
       <c r="O32" s="16"/>
@@ -1982,10 +1834,10 @@
         <v>8</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N33" s="17"/>
       <c r="O33" s="17"/>
@@ -1993,7 +1845,7 @@
     </row>
     <row r="34" spans="1:16">
       <c r="B34" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N34" s="17"/>
       <c r="O34" s="17"/>
@@ -2007,7 +1859,7 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N36" s="17"/>
       <c r="O36" s="17"/>
@@ -2020,7 +1872,7 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N38" s="17"/>
       <c r="O38" s="17"/>
@@ -2036,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D40" s="22" t="s">
         <v>1</v>
@@ -2050,10 +1902,10 @@
         <v>15</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N41" s="17"/>
       <c r="O41" s="17"/>
@@ -2064,10 +1916,10 @@
         <v>19</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N42" s="17"/>
       <c r="O42" s="21"/>
@@ -2078,23 +1930,23 @@
         <v>20</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2102,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D50" s="24" t="s">
         <v>1</v>
@@ -2110,45 +1962,45 @@
     </row>
     <row r="51" spans="1:4">
       <c r="B51" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="B52" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="B53" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2156,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D61" s="24" t="s">
         <v>1</v>
@@ -2167,10 +2019,10 @@
         <v>9</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D62" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2178,10 +2030,10 @@
         <v>2</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D63" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2189,10 +2041,10 @@
         <v>6</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="65" spans="2:4">
@@ -2200,10 +2052,10 @@
         <v>10</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="66" spans="2:4">
@@ -2211,10 +2063,10 @@
         <v>11</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="67" spans="2:4">
@@ -2222,10 +2074,10 @@
         <v>12</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68" spans="2:4">
@@ -2233,10 +2085,10 @@
         <v>13</v>
       </c>
       <c r="C68" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D68" s="23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="69" spans="2:4">
@@ -2244,10 +2096,10 @@
         <v>14</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D69" s="23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="70" spans="2:4">
@@ -2255,10 +2107,10 @@
         <v>15</v>
       </c>
       <c r="C70" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D70" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="71" spans="2:4">
@@ -2266,10 +2118,10 @@
         <v>16</v>
       </c>
       <c r="C71" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D71" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="72" spans="2:4">
@@ -2277,43 +2129,43 @@
         <v>17</v>
       </c>
       <c r="C72" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D72" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="73" spans="2:4">
       <c r="B73" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C73" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D73" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="74" spans="2:4">
       <c r="B74" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C74" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D74" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="75" spans="2:4">
       <c r="B75" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C75" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D75" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2326,8 +2178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5690EB-2240-5344-BE84-8D3D170BFF8E}">
   <dimension ref="A1:Z133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="56" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+    <sheetView tabSelected="1" zoomScale="56" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="34"/>
@@ -2352,7 +2204,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M1" s="14" t="s">
         <v>2</v>
@@ -2361,24 +2213,24 @@
         <v>3</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="36">
+      <c r="B2" s="35" t="s">
+        <v>253</v>
       </c>
       <c r="M2" s="12">
         <v>1</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O2" s="12">
         <v>1</v>
@@ -2390,15 +2242,15 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
-      <c r="B3" s="5" t="s">
-        <v>251</v>
+    <row r="3" spans="1:17" ht="36">
+      <c r="B3" s="35" t="s">
+        <v>254</v>
       </c>
       <c r="M3" s="12">
         <v>2</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O3" s="12">
         <v>2</v>
@@ -2410,15 +2262,15 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
-      <c r="B4" s="3" t="s">
-        <v>247</v>
+    <row r="4" spans="1:17" ht="36">
+      <c r="B4" s="35" t="s">
+        <v>255</v>
       </c>
       <c r="M4" s="12">
         <v>3</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O4" s="12">
         <v>3</v>
@@ -2430,15 +2282,15 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
-      <c r="B5" s="3" t="s">
-        <v>248</v>
+    <row r="5" spans="1:17" ht="36">
+      <c r="B5" s="35" t="s">
+        <v>256</v>
       </c>
       <c r="M5" s="12">
         <v>4</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O5" s="12">
         <v>4</v>
@@ -2450,15 +2302,15 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
-      <c r="B6" s="3" t="s">
-        <v>249</v>
+    <row r="6" spans="1:17" ht="36">
+      <c r="B6" s="35" t="s">
+        <v>257</v>
       </c>
       <c r="M6" s="12">
         <v>5</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O6" s="30"/>
       <c r="P6" s="13">
@@ -2468,15 +2320,15 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
-      <c r="B7" s="3" t="s">
-        <v>250</v>
+    <row r="7" spans="1:17" ht="36">
+      <c r="B7" s="35" t="s">
+        <v>258</v>
       </c>
       <c r="M7" s="12">
         <v>6</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O7" s="12">
         <v>5</v>
@@ -2488,16 +2340,16 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" ht="36">
       <c r="A8" s="9"/>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="35" t="s">
         <v>21</v>
       </c>
       <c r="M8" s="12">
         <v>7</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O8" s="12">
         <v>5</v>
@@ -2514,7 +2366,7 @@
         <v>8</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O9" s="12">
         <v>8</v>
@@ -2531,7 +2383,7 @@
         <v>9</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O10" s="12">
         <v>7</v>
@@ -2548,7 +2400,7 @@
         <v>10</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O11" s="12">
         <v>3</v>
@@ -2568,8 +2420,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="1:17" ht="36">
+      <c r="B15" s="35" t="s">
         <v>24</v>
       </c>
       <c r="M15" s="12">
@@ -2579,9 +2431,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
-      <c r="B16" s="3" t="s">
-        <v>43</v>
+    <row r="16" spans="1:17" ht="36">
+      <c r="B16" s="35" t="s">
+        <v>42</v>
       </c>
       <c r="M16" s="12">
         <v>22</v>
@@ -2590,9 +2442,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
-      <c r="B17" s="3" t="s">
-        <v>44</v>
+    <row r="17" spans="1:17" ht="36">
+      <c r="B17" s="35" t="s">
+        <v>43</v>
       </c>
       <c r="M17" s="12">
         <v>11</v>
@@ -2601,9 +2453,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
-      <c r="B18" s="3" t="s">
-        <v>45</v>
+    <row r="18" spans="1:17" ht="36">
+      <c r="B18" s="35" t="s">
+        <v>44</v>
       </c>
       <c r="M18" s="12">
         <v>39</v>
@@ -2612,9 +2464,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
-      <c r="B19" s="3" t="s">
-        <v>46</v>
+    <row r="19" spans="1:17" ht="36">
+      <c r="B19" s="35" t="s">
+        <v>45</v>
       </c>
       <c r="M19" s="12">
         <v>77</v>
@@ -2623,8 +2475,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
-      <c r="B20" s="3" t="s">
+    <row r="20" spans="1:17" ht="36">
+      <c r="B20" s="35" t="s">
         <v>18</v>
       </c>
       <c r="M20" s="12">
@@ -2634,10 +2486,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:17" ht="36">
       <c r="A21" s="11"/>
-      <c r="B21" s="3" t="s">
-        <v>47</v>
+      <c r="B21" s="35" t="s">
+        <v>46</v>
       </c>
       <c r="M21" s="12">
         <v>53</v>
@@ -2646,9 +2498,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
-      <c r="B22" s="3" t="s">
-        <v>48</v>
+    <row r="22" spans="1:17" ht="36">
+      <c r="B22" s="35" t="s">
+        <v>47</v>
       </c>
       <c r="M22" s="12">
         <v>59</v>
@@ -2657,8 +2509,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
-      <c r="B23" s="3" t="s">
+    <row r="23" spans="1:17" ht="36">
+      <c r="B23" s="35" t="s">
         <v>2</v>
       </c>
       <c r="M23" s="12">
@@ -2668,9 +2520,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
-      <c r="B24" s="3" t="s">
-        <v>49</v>
+    <row r="24" spans="1:17" ht="36">
+      <c r="B24" s="35" t="s">
+        <v>48</v>
       </c>
       <c r="M24" s="12">
         <v>93</v>
@@ -2679,65 +2531,40 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
-      <c r="B25" s="3" t="s">
+    <row r="25" spans="1:17" ht="36">
+      <c r="B25" s="35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="36">
+      <c r="B26" s="35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="36">
+      <c r="B27" s="35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="36">
+      <c r="B28" s="35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="36">
+      <c r="B29" s="35" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
-      <c r="B26" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22">
-      <c r="B27" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22">
-      <c r="B28" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="R28" s="32"/>
-      <c r="S28" s="32"/>
-      <c r="T28" s="32"/>
-    </row>
-    <row r="29" spans="1:22">
-      <c r="B29" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="R29" s="32"/>
-      <c r="S29" s="32"/>
-      <c r="T29" s="32"/>
-    </row>
-    <row r="30" spans="1:22">
-      <c r="B30" s="3" t="s">
+    <row r="30" spans="1:17" ht="36">
+      <c r="B30" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="Q30" s="32"/>
-      <c r="R30" s="32"/>
-      <c r="S30" s="32"/>
-      <c r="T30" s="32"/>
-      <c r="U30" s="32"/>
-      <c r="V30" s="32"/>
-    </row>
-    <row r="31" spans="1:22">
-      <c r="Q31" s="33"/>
-      <c r="R31" s="32"/>
-      <c r="S31" s="32"/>
-      <c r="T31" s="32"/>
-      <c r="U31" s="32"/>
-      <c r="V31" s="32"/>
-    </row>
-    <row r="32" spans="1:22">
-      <c r="Q32" s="32"/>
-      <c r="R32" s="32"/>
-      <c r="S32" s="32"/>
-      <c r="T32" s="32"/>
-      <c r="U32" s="32"/>
-      <c r="V32" s="32"/>
-    </row>
-    <row r="33" spans="1:22">
+    </row>
+    <row r="31" spans="1:17">
+      <c r="Q31" s="32"/>
+    </row>
+    <row r="33" spans="1:18">
       <c r="M33" s="14" t="s">
         <v>6</v>
       </c>
@@ -2747,14 +2574,8 @@
       <c r="O33" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="Q33" s="32"/>
-      <c r="R33" s="32"/>
-      <c r="S33" s="32"/>
-      <c r="T33" s="32"/>
-      <c r="U33" s="32"/>
-      <c r="V33" s="32"/>
-    </row>
-    <row r="34" spans="1:22">
+    </row>
+    <row r="34" spans="1:18">
       <c r="B34" s="3" t="s">
         <v>22</v>
       </c>
@@ -2762,82 +2583,58 @@
         <v>1</v>
       </c>
       <c r="N34" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="O34" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="O34" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q34" s="32"/>
-      <c r="R34" s="32"/>
-      <c r="S34" s="32"/>
-      <c r="T34" s="32"/>
-      <c r="U34" s="32"/>
-      <c r="V34" s="32"/>
-    </row>
-    <row r="35" spans="1:22">
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" s="10"/>
       <c r="B35" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M35" s="12">
         <v>2</v>
       </c>
       <c r="N35" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="O35" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="O35" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q35" s="32"/>
-      <c r="R35" s="32"/>
-      <c r="S35" s="32"/>
-      <c r="T35" s="32"/>
-      <c r="U35" s="32"/>
-      <c r="V35" s="32"/>
-    </row>
-    <row r="36" spans="1:22">
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" s="10"/>
       <c r="B36" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M36" s="12">
         <v>3</v>
       </c>
       <c r="N36" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="O36" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="O36" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q36" s="32"/>
-      <c r="R36" s="32"/>
-      <c r="S36" s="32"/>
-      <c r="T36" s="32"/>
-      <c r="U36" s="32"/>
-      <c r="V36" s="32"/>
-    </row>
-    <row r="37" spans="1:22">
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" s="10"/>
       <c r="B37" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M37" s="12">
         <v>4</v>
       </c>
       <c r="N37" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O37" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q37" s="32"/>
-      <c r="R37" s="32"/>
-      <c r="S37" s="32"/>
-      <c r="T37" s="32"/>
-      <c r="U37" s="32"/>
-      <c r="V37" s="32"/>
-    </row>
-    <row r="38" spans="1:22">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
       <c r="B38" s="3" t="s">
         <v>21</v>
       </c>
@@ -2845,103 +2642,57 @@
         <v>5</v>
       </c>
       <c r="N38" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="O38" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="O38" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q38" s="32"/>
-      <c r="R38" s="32"/>
-      <c r="S38" s="32"/>
-      <c r="T38" s="32"/>
-      <c r="U38" s="32"/>
-      <c r="V38" s="32"/>
-    </row>
-    <row r="39" spans="1:22">
+    </row>
+    <row r="39" spans="1:18">
       <c r="M39" s="12">
         <v>6</v>
       </c>
       <c r="N39" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O39" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q39" s="32"/>
-      <c r="R39" s="32"/>
-      <c r="S39" s="32"/>
-      <c r="T39" s="32"/>
-      <c r="U39" s="32"/>
-      <c r="V39" s="32"/>
-    </row>
-    <row r="40" spans="1:22">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
       <c r="M40" s="12">
         <v>7</v>
       </c>
       <c r="N40" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="O40" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="O40" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q40" s="32"/>
-      <c r="R40" s="32"/>
-      <c r="S40" s="32"/>
-      <c r="T40" s="32"/>
-      <c r="U40" s="32"/>
-      <c r="V40" s="32"/>
-    </row>
-    <row r="41" spans="1:22">
+    </row>
+    <row r="41" spans="1:18">
       <c r="M41" s="12">
         <v>8</v>
       </c>
       <c r="N41" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O41" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q41" s="32"/>
-      <c r="R41" s="32"/>
-      <c r="S41" s="32"/>
-      <c r="T41" s="32"/>
-      <c r="U41" s="32"/>
-      <c r="V41" s="32"/>
-    </row>
-    <row r="42" spans="1:22">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
       <c r="M42" s="12">
         <v>9</v>
       </c>
       <c r="N42" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="O42" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="O42" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q42" s="32"/>
-      <c r="R42" s="32"/>
-      <c r="S42" s="32"/>
-      <c r="T42" s="32"/>
-      <c r="U42" s="32"/>
-      <c r="V42" s="32"/>
-    </row>
-    <row r="43" spans="1:22">
-      <c r="Q43" s="32"/>
-      <c r="R43" s="32"/>
-      <c r="S43" s="32"/>
-      <c r="T43" s="32"/>
-      <c r="U43" s="32"/>
-      <c r="V43" s="32"/>
-    </row>
-    <row r="44" spans="1:22">
-      <c r="Q44" s="32"/>
-      <c r="R44" s="32"/>
-      <c r="S44" s="32"/>
-      <c r="T44" s="32"/>
-      <c r="U44" s="32"/>
-      <c r="V44" s="32"/>
-    </row>
-    <row r="45" spans="1:22">
+    </row>
+    <row r="45" spans="1:18">
       <c r="M45" s="14" t="s">
         <v>15</v>
       </c>
@@ -2951,94 +2702,66 @@
       <c r="O45" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q45" s="33"/>
-      <c r="R45" s="33"/>
-      <c r="S45" s="32"/>
-      <c r="T45" s="32"/>
-      <c r="U45" s="32"/>
-      <c r="V45" s="32"/>
-    </row>
-    <row r="46" spans="1:22">
+      <c r="Q45" s="32"/>
+      <c r="R45" s="32"/>
+    </row>
+    <row r="46" spans="1:18">
       <c r="B46" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M46" s="12">
         <v>1</v>
       </c>
       <c r="N46" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="O46" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="O46" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q46" s="32"/>
-      <c r="R46" s="32"/>
-      <c r="S46" s="32"/>
-      <c r="T46" s="32"/>
-      <c r="U46" s="32"/>
-      <c r="V46" s="32"/>
-    </row>
-    <row r="47" spans="1:22">
+    </row>
+    <row r="47" spans="1:18">
       <c r="B47" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M47" s="12">
         <v>2</v>
       </c>
       <c r="N47" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O47" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q47" s="32"/>
-      <c r="R47" s="32"/>
-      <c r="S47" s="32"/>
-      <c r="T47" s="32"/>
-      <c r="U47" s="32"/>
-      <c r="V47" s="32"/>
-    </row>
-    <row r="48" spans="1:22">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
       <c r="B48" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M48" s="12">
         <v>3</v>
       </c>
       <c r="N48" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="O48" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="O48" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q48" s="32"/>
-      <c r="R48" s="32"/>
-      <c r="S48" s="32"/>
-      <c r="T48" s="32"/>
-      <c r="U48" s="32"/>
-      <c r="V48" s="32"/>
-    </row>
-    <row r="49" spans="1:22">
+    </row>
+    <row r="49" spans="1:15">
       <c r="B49" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M49" s="12">
         <v>4</v>
       </c>
       <c r="N49" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="O49" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="O49" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q49" s="32"/>
-      <c r="R49" s="32"/>
-      <c r="S49" s="32"/>
-      <c r="T49" s="32"/>
-      <c r="U49" s="32"/>
-      <c r="V49" s="32"/>
-    </row>
-    <row r="50" spans="1:22">
+    </row>
+    <row r="50" spans="1:15">
       <c r="B50" s="3" t="s">
         <v>21</v>
       </c>
@@ -3046,218 +2769,162 @@
         <v>5</v>
       </c>
       <c r="N50" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O50" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q50" s="32"/>
-      <c r="R50" s="32"/>
-      <c r="S50" s="32"/>
-      <c r="T50" s="32"/>
-      <c r="U50" s="32"/>
-      <c r="V50" s="32"/>
-    </row>
-    <row r="51" spans="1:22">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="M51" s="12">
         <v>6</v>
       </c>
       <c r="N51" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O51" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q51" s="32"/>
-      <c r="R51" s="32"/>
-      <c r="S51" s="32"/>
-      <c r="T51" s="32"/>
-      <c r="U51" s="32"/>
-      <c r="V51" s="32"/>
-    </row>
-    <row r="52" spans="1:22">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="M52" s="12">
         <v>7</v>
       </c>
       <c r="N52" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="O52" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="O52" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q52" s="32"/>
-      <c r="R52" s="32"/>
-      <c r="S52" s="32"/>
-      <c r="T52" s="32"/>
-      <c r="U52" s="32"/>
-      <c r="V52" s="32"/>
-    </row>
-    <row r="53" spans="1:22">
+    </row>
+    <row r="53" spans="1:15">
       <c r="M53" s="12">
         <v>8</v>
       </c>
       <c r="N53" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="O53" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="O53" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q53" s="32"/>
-      <c r="R53" s="32"/>
-      <c r="S53" s="32"/>
-      <c r="T53" s="32"/>
-      <c r="U53" s="32"/>
-      <c r="V53" s="32"/>
-    </row>
-    <row r="54" spans="1:22">
+    </row>
+    <row r="54" spans="1:15">
       <c r="M54" s="12">
         <v>9</v>
       </c>
       <c r="N54" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O54" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q54" s="32"/>
-      <c r="R54" s="32"/>
-      <c r="S54" s="32"/>
-      <c r="T54" s="32"/>
-      <c r="U54" s="32"/>
-      <c r="V54" s="32"/>
-    </row>
-    <row r="55" spans="1:22">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="M55" s="12">
         <v>10</v>
       </c>
       <c r="N55" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O55" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q55" s="32"/>
-      <c r="R55" s="32"/>
-      <c r="S55" s="32"/>
-      <c r="T55" s="32"/>
-      <c r="U55" s="32"/>
-      <c r="V55" s="32"/>
-    </row>
-    <row r="56" spans="1:22">
-      <c r="Q56" s="32"/>
-      <c r="R56" s="32"/>
-      <c r="S56" s="32"/>
-      <c r="T56" s="32"/>
-      <c r="U56" s="32"/>
-      <c r="V56" s="32"/>
-    </row>
-    <row r="57" spans="1:22">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" s="4"/>
-      <c r="Q57" s="32"/>
-      <c r="R57" s="32"/>
-      <c r="S57" s="32"/>
-      <c r="T57" s="32"/>
-      <c r="U57" s="32"/>
-      <c r="V57" s="32"/>
-    </row>
-    <row r="58" spans="1:22">
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" s="4"/>
       <c r="M58" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="N58" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="N58" s="14" t="s">
+      <c r="O58" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="O58" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q58" s="32"/>
-      <c r="R58" s="32"/>
-      <c r="S58" s="32"/>
-      <c r="T58" s="32"/>
-      <c r="U58" s="32"/>
-      <c r="V58" s="32"/>
-    </row>
-    <row r="59" spans="1:22">
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" s="4"/>
       <c r="M59" s="12">
         <v>1</v>
       </c>
       <c r="N59" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O59" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:22">
+    <row r="60" spans="1:15">
       <c r="A60" s="4"/>
       <c r="B60" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M60" s="12">
         <v>2</v>
       </c>
       <c r="N60" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O60" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:22">
+    <row r="61" spans="1:15">
       <c r="A61" s="4"/>
       <c r="B61" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M61" s="12">
         <v>3</v>
       </c>
       <c r="N61" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O61" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:22">
+    <row r="62" spans="1:15">
       <c r="A62" s="4"/>
       <c r="B62" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M62" s="12">
         <v>4</v>
       </c>
       <c r="N62" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O62" s="12">
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:22">
+    <row r="63" spans="1:15">
       <c r="B63" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M63" s="12">
         <v>5</v>
       </c>
       <c r="N63" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O63" s="12">
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:22">
+    <row r="64" spans="1:15">
       <c r="B64" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M64" s="12">
         <v>6</v>
       </c>
       <c r="N64" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O64" s="12">
         <v>6</v>
@@ -3272,7 +2939,7 @@
         <v>7</v>
       </c>
       <c r="N65" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O65" s="12">
         <v>7</v>
@@ -3283,7 +2950,7 @@
         <v>8</v>
       </c>
       <c r="N66" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O66" s="12">
         <v>8</v>
@@ -3328,13 +2995,13 @@
         <v>17</v>
       </c>
       <c r="X69" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y69" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="Y69" s="14" t="s">
+      <c r="Z69" s="14" t="s">
         <v>128</v>
-      </c>
-      <c r="Z69" s="14" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="70" spans="1:26">
@@ -3351,7 +3018,7 @@
         <v>5</v>
       </c>
       <c r="P70" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q70" s="12">
         <v>4</v>
@@ -3369,7 +3036,7 @@
         <v>16</v>
       </c>
       <c r="V70" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="W70" s="12">
         <v>5913</v>
@@ -3387,7 +3054,7 @@
     <row r="71" spans="1:26" ht="38">
       <c r="A71" s="6"/>
       <c r="B71" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M71" s="12">
         <v>2</v>
@@ -3399,7 +3066,7 @@
         <v>12</v>
       </c>
       <c r="P71" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q71" s="12">
         <v>12</v>
@@ -3417,7 +3084,7 @@
         <v>15</v>
       </c>
       <c r="V71" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W71" s="12">
         <v>17742</v>
@@ -3435,7 +3102,7 @@
     <row r="72" spans="1:26" ht="38">
       <c r="A72" s="6"/>
       <c r="B72" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M72" s="12">
         <v>3</v>
@@ -3447,7 +3114,7 @@
         <v>18</v>
       </c>
       <c r="P72" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q72" s="12">
         <v>13</v>
@@ -3465,7 +3132,7 @@
         <v>2</v>
       </c>
       <c r="V72" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="W72" s="12">
         <v>19377</v>
@@ -3483,7 +3150,7 @@
     <row r="73" spans="1:26" ht="38">
       <c r="A73" s="6"/>
       <c r="B73" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M73" s="12">
         <v>4</v>
@@ -3495,7 +3162,7 @@
         <v>2</v>
       </c>
       <c r="P73" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q73" s="12">
         <v>8</v>
@@ -3513,7 +3180,7 @@
         <v>7</v>
       </c>
       <c r="V73" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W73" s="12">
         <v>13763</v>
@@ -3530,7 +3197,7 @@
     </row>
     <row r="74" spans="1:26">
       <c r="B74" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M74" s="12">
         <v>5</v>
@@ -3542,7 +3209,7 @@
         <v>17</v>
       </c>
       <c r="P74" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q74" s="12">
         <v>8</v>
@@ -3560,7 +3227,7 @@
         <v>10</v>
       </c>
       <c r="V74" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W74" s="12">
         <v>8717</v>
@@ -3578,7 +3245,7 @@
     <row r="75" spans="1:26" ht="38">
       <c r="A75" s="6"/>
       <c r="B75" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M75" s="12">
         <v>6</v>
@@ -3590,7 +3257,7 @@
         <v>19</v>
       </c>
       <c r="P75" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q75" s="12">
         <v>18</v>
@@ -3608,7 +3275,7 @@
         <v>15</v>
       </c>
       <c r="V75" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="W75" s="12">
         <v>15602</v>
@@ -3626,7 +3293,7 @@
     <row r="76" spans="1:26" ht="38">
       <c r="A76" s="6"/>
       <c r="B76" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M76" s="12">
         <v>7</v>
@@ -3638,7 +3305,7 @@
         <v>14</v>
       </c>
       <c r="P76" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q76" s="12">
         <v>17</v>
@@ -3656,7 +3323,7 @@
         <v>12</v>
       </c>
       <c r="V76" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W76" s="12">
         <v>19052</v>
@@ -3674,7 +3341,7 @@
     <row r="77" spans="1:26" ht="38">
       <c r="A77" s="6"/>
       <c r="B77" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M77" s="12">
         <v>8</v>
@@ -3686,7 +3353,7 @@
         <v>10</v>
       </c>
       <c r="P77" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q77" s="12">
         <v>9</v>
@@ -3704,7 +3371,7 @@
         <v>20</v>
       </c>
       <c r="V77" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W77" s="12">
         <v>12532</v>
@@ -3722,7 +3389,7 @@
     <row r="78" spans="1:26" ht="38">
       <c r="A78" s="6"/>
       <c r="B78" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M78" s="12">
         <v>9</v>
@@ -3734,7 +3401,7 @@
         <v>13</v>
       </c>
       <c r="P78" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q78" s="12">
         <v>5</v>
@@ -3752,7 +3419,7 @@
         <v>1</v>
       </c>
       <c r="V78" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="W78" s="12">
         <v>13126</v>
@@ -3769,7 +3436,7 @@
     </row>
     <row r="79" spans="1:26">
       <c r="B79" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M79" s="12">
         <v>10</v>
@@ -3781,7 +3448,7 @@
         <v>10</v>
       </c>
       <c r="P79" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q79" s="12">
         <v>14</v>
@@ -3799,7 +3466,7 @@
         <v>9</v>
       </c>
       <c r="V79" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="W79" s="12">
         <v>5183</v>
@@ -3816,190 +3483,190 @@
     </row>
     <row r="80" spans="1:26">
       <c r="B80" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="81" spans="1:20">
       <c r="B81" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="M81" s="34"/>
-      <c r="N81" s="34"/>
-      <c r="O81" s="34"/>
-      <c r="P81" s="34"/>
-      <c r="Q81" s="34"/>
-      <c r="R81" s="34"/>
-      <c r="S81" s="34"/>
-      <c r="T81" s="34"/>
+        <v>113</v>
+      </c>
+      <c r="M81" s="33"/>
+      <c r="N81" s="33"/>
+      <c r="O81" s="33"/>
+      <c r="P81" s="33"/>
+      <c r="Q81" s="33"/>
+      <c r="R81" s="33"/>
+      <c r="S81" s="33"/>
+      <c r="T81" s="33"/>
     </row>
     <row r="82" spans="1:20">
       <c r="A82" s="5"/>
       <c r="B82" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="M82" s="34"/>
-      <c r="N82" s="34"/>
-      <c r="O82" s="34"/>
-      <c r="P82" s="34"/>
-      <c r="Q82" s="34"/>
-      <c r="R82" s="34"/>
-      <c r="S82" s="34"/>
-      <c r="T82" s="34"/>
+        <v>114</v>
+      </c>
+      <c r="M82" s="33"/>
+      <c r="N82" s="33"/>
+      <c r="O82" s="33"/>
+      <c r="P82" s="33"/>
+      <c r="Q82" s="33"/>
+      <c r="R82" s="33"/>
+      <c r="S82" s="33"/>
+      <c r="T82" s="33"/>
     </row>
     <row r="83" spans="1:20">
       <c r="B83" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="M83" s="34"/>
-      <c r="N83" s="34"/>
-      <c r="O83" s="34"/>
-      <c r="P83" s="34"/>
-      <c r="Q83" s="34"/>
-      <c r="R83" s="34"/>
-      <c r="S83" s="34"/>
-      <c r="T83" s="34"/>
+        <v>115</v>
+      </c>
+      <c r="M83" s="33"/>
+      <c r="N83" s="33"/>
+      <c r="O83" s="33"/>
+      <c r="P83" s="33"/>
+      <c r="Q83" s="33"/>
+      <c r="R83" s="33"/>
+      <c r="S83" s="33"/>
+      <c r="T83" s="33"/>
     </row>
     <row r="84" spans="1:20">
       <c r="A84" s="5"/>
       <c r="B84" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="M84" s="34"/>
-      <c r="N84" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="M84" s="33"/>
+      <c r="N84" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="O84" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="P84" s="34" t="s">
         <v>252</v>
       </c>
-      <c r="O84" s="35" t="s">
-        <v>253</v>
-      </c>
-      <c r="P84" s="35" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q84" s="35"/>
-      <c r="R84" s="35"/>
-      <c r="S84" s="34"/>
-      <c r="T84" s="34"/>
+      <c r="Q84" s="34"/>
+      <c r="R84" s="34"/>
+      <c r="S84" s="33"/>
+      <c r="T84" s="33"/>
     </row>
     <row r="85" spans="1:20">
       <c r="B85" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="M85" s="34"/>
-      <c r="N85" s="35"/>
-      <c r="O85" s="35"/>
-      <c r="P85" s="35"/>
-      <c r="Q85" s="35"/>
-      <c r="R85" s="35"/>
-      <c r="S85" s="34"/>
-      <c r="T85" s="34"/>
+        <v>47</v>
+      </c>
+      <c r="M85" s="33"/>
+      <c r="N85" s="34"/>
+      <c r="O85" s="34"/>
+      <c r="P85" s="34"/>
+      <c r="Q85" s="34"/>
+      <c r="R85" s="34"/>
+      <c r="S85" s="33"/>
+      <c r="T85" s="33"/>
     </row>
     <row r="86" spans="1:20">
       <c r="A86" s="5"/>
       <c r="B86" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M86" s="34"/>
-      <c r="N86" s="35"/>
-      <c r="O86" s="35" t="s">
-        <v>254</v>
-      </c>
-      <c r="P86" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q86" s="35" t="s">
-        <v>256</v>
-      </c>
-      <c r="R86" s="35" t="s">
-        <v>257</v>
-      </c>
-      <c r="S86" s="34"/>
-      <c r="T86" s="34"/>
+      <c r="M86" s="33"/>
+      <c r="N86" s="34"/>
+      <c r="O86" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="P86" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q86" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="R86" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="S86" s="33"/>
+      <c r="T86" s="33"/>
     </row>
     <row r="87" spans="1:20">
       <c r="B87" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M87" s="34"/>
-      <c r="N87" s="34"/>
-      <c r="O87" s="34"/>
-      <c r="P87" s="34"/>
-      <c r="Q87" s="34"/>
-      <c r="R87" s="34"/>
-      <c r="S87" s="34"/>
-      <c r="T87" s="34"/>
+        <v>48</v>
+      </c>
+      <c r="M87" s="33"/>
+      <c r="N87" s="33"/>
+      <c r="O87" s="33"/>
+      <c r="P87" s="33"/>
+      <c r="Q87" s="33"/>
+      <c r="R87" s="33"/>
+      <c r="S87" s="33"/>
+      <c r="T87" s="33"/>
     </row>
     <row r="88" spans="1:20" ht="38">
       <c r="A88" s="6"/>
       <c r="B88" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="M88" s="34"/>
-      <c r="N88" s="34"/>
-      <c r="O88" s="34"/>
-      <c r="P88" s="34"/>
-      <c r="Q88" s="34"/>
-      <c r="R88" s="34"/>
-      <c r="S88" s="34"/>
-      <c r="T88" s="34"/>
+        <v>49</v>
+      </c>
+      <c r="M88" s="33"/>
+      <c r="N88" s="33"/>
+      <c r="O88" s="33"/>
+      <c r="P88" s="33"/>
+      <c r="Q88" s="33"/>
+      <c r="R88" s="33"/>
+      <c r="S88" s="33"/>
+      <c r="T88" s="33"/>
     </row>
     <row r="89" spans="1:20" ht="38">
       <c r="A89" s="6"/>
       <c r="B89" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="M89" s="34"/>
-      <c r="N89" s="34"/>
-      <c r="O89" s="34"/>
-      <c r="P89" s="34"/>
-      <c r="Q89" s="34"/>
-      <c r="R89" s="34"/>
-      <c r="S89" s="34"/>
-      <c r="T89" s="34"/>
+        <v>47</v>
+      </c>
+      <c r="M89" s="33"/>
+      <c r="N89" s="33"/>
+      <c r="O89" s="33"/>
+      <c r="P89" s="33"/>
+      <c r="Q89" s="33"/>
+      <c r="R89" s="33"/>
+      <c r="S89" s="33"/>
+      <c r="T89" s="33"/>
     </row>
     <row r="90" spans="1:20" ht="38">
       <c r="A90" s="6"/>
       <c r="B90" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M90" s="34"/>
-      <c r="N90" s="34"/>
-      <c r="O90" s="34"/>
-      <c r="P90" s="34"/>
-      <c r="Q90" s="34"/>
-      <c r="R90" s="34"/>
-      <c r="S90" s="34"/>
-      <c r="T90" s="34"/>
+      <c r="M90" s="33"/>
+      <c r="N90" s="33"/>
+      <c r="O90" s="33"/>
+      <c r="P90" s="33"/>
+      <c r="Q90" s="33"/>
+      <c r="R90" s="33"/>
+      <c r="S90" s="33"/>
+      <c r="T90" s="33"/>
     </row>
     <row r="91" spans="1:20" ht="38">
       <c r="A91" s="6"/>
       <c r="B91" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M91" s="34"/>
-      <c r="N91" s="34"/>
-      <c r="O91" s="34"/>
-      <c r="P91" s="34"/>
-      <c r="Q91" s="34"/>
-      <c r="R91" s="34"/>
-      <c r="S91" s="34"/>
-      <c r="T91" s="34"/>
+        <v>48</v>
+      </c>
+      <c r="M91" s="33"/>
+      <c r="N91" s="33"/>
+      <c r="O91" s="33"/>
+      <c r="P91" s="33"/>
+      <c r="Q91" s="33"/>
+      <c r="R91" s="33"/>
+      <c r="S91" s="33"/>
+      <c r="T91" s="33"/>
     </row>
     <row r="92" spans="1:20" ht="38">
       <c r="A92" s="6"/>
       <c r="B92" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="M92" s="34"/>
-      <c r="N92" s="34"/>
-      <c r="O92" s="34"/>
-      <c r="P92" s="34"/>
-      <c r="Q92" s="34"/>
-      <c r="R92" s="34"/>
-      <c r="S92" s="34"/>
-      <c r="T92" s="34"/>
+        <v>117</v>
+      </c>
+      <c r="M92" s="33"/>
+      <c r="N92" s="33"/>
+      <c r="O92" s="33"/>
+      <c r="P92" s="33"/>
+      <c r="Q92" s="33"/>
+      <c r="R92" s="33"/>
+      <c r="S92" s="33"/>
+      <c r="T92" s="33"/>
     </row>
     <row r="93" spans="1:20">
       <c r="B93" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="94" spans="1:20">
@@ -4009,13 +3676,13 @@
     </row>
     <row r="95" spans="1:20">
       <c r="B95" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="96" spans="1:20">
       <c r="A96" s="5"/>
       <c r="B96" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -4090,7 +3757,7 @@
       <c r="A133" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="26" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4105,177 +3772,177 @@
   <sheetData>
     <row r="1" spans="1:1" ht="24">
       <c r="A1" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="19">
       <c r="A4" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="17">
       <c r="A6" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="17">
       <c r="A7" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="17">
       <c r="A8" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="17">
       <c r="A9" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="19">
       <c r="A13" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="17">
       <c r="A15" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="17">
       <c r="A16" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="17">
       <c r="A17" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="17">
       <c r="A18" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="17">
       <c r="A19" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="19">
       <c r="A23" s="25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="17">
       <c r="A25" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="17">
       <c r="A26" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="17">
       <c r="A27" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="24">
       <c r="A31" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="19">
       <c r="A34" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="17">
       <c r="A36" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="17">
       <c r="A37" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="17">
       <c r="A38" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="17">
       <c r="A39" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="17">
       <c r="A40" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="17">
       <c r="A41" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="19">
       <c r="A45" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="17">
       <c r="A47" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="17">
       <c r="A48" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="17">
       <c r="A49" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="17">
       <c r="A50" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="17">
       <c r="A51" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="17">
       <c r="A52" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="17">
       <c r="A53" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="17">
       <c r="A54" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="24">
       <c r="A58" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="19">
       <c r="A61" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="17">
@@ -4290,162 +3957,162 @@
     </row>
     <row r="65" spans="1:1" ht="17">
       <c r="A65" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="19">
       <c r="A69" s="25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="17">
       <c r="A71" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="17">
       <c r="A72" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="17">
       <c r="A73" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="24">
       <c r="A77" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="19">
       <c r="A80" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="17">
       <c r="A82" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="17">
       <c r="A83" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="17">
       <c r="A84" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="17">
       <c r="A85" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="17">
       <c r="A86" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="17">
       <c r="A87" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="19">
       <c r="A91" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="17">
       <c r="A93" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="17">
       <c r="A94" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="17">
       <c r="A95" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="17">
       <c r="A96" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="24">
       <c r="A100" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="19">
       <c r="A103" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="17">
       <c r="A105" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="17">
       <c r="A106" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="17">
       <c r="A107" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="17">
       <c r="A108" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="17">
       <c r="A109" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="19">
       <c r="A113" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="17">
       <c r="A115" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="17">
       <c r="A116" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="17">
       <c r="A117" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="17">
       <c r="A118" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="17">
       <c r="A119" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="17">
       <c r="A120" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="17">
@@ -4455,17 +4122,17 @@
     </row>
     <row r="125" spans="1:1" ht="19">
       <c r="A125" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="17">
       <c r="A127" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="17">
       <c r="A128" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="17">
@@ -4475,47 +4142,47 @@
     </row>
     <row r="130" spans="1:1" ht="17">
       <c r="A130" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="19">
       <c r="A134" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="17">
       <c r="A136" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="17">
       <c r="A137" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="17">
       <c r="A138" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="17">
       <c r="A139" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="17">
       <c r="A140" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="17">
       <c r="A141" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="19">
       <c r="A145" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="17">
@@ -4530,32 +4197,32 @@
     </row>
     <row r="149" spans="1:1" ht="17">
       <c r="A149" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="153" spans="1:1" ht="19">
       <c r="A153" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="17">
       <c r="A155" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="17">
       <c r="A156" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="17">
       <c r="A157" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="17">
       <c r="A158" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="17">
